--- a/pers.caijx.tools/excel/styled.xlsx
+++ b/pers.caijx.tools/excel/styled.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>Hello World!</t>
+    <t>Bold Times Roman</t>
+  </si>
+  <si>
+    <t>24 pt Itaic</t>
   </si>
 </sst>
 </file>
@@ -25,13 +28,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
     </font>
     <font>
       <i val="1"/>
@@ -58,9 +65,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -366,9 +374,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
